--- a/biology/Zoologie/Harjesia_griseola/Harjesia_griseola.xlsx
+++ b/biology/Zoologie/Harjesia_griseola/Harjesia_griseola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Harjesia griseola est une  espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Harjesia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Harjesia griseola a été décrit par Gustav Weymer en 1911 sous le nom d' Euptychia griseola.
-Synonyme : Taygetis indecisa Ribeiro, 1931[1].
-Noms vernaculaires
-Harjesia griseola se nomme Obscure Satyr en anglais comme Harjesia obscura[2].
+Synonyme : Taygetis indecisa Ribeiro, 1931.
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Harjesia griseola est un papillon aux ailes postérieures légèrement dentelées au dessus gris ocré.
-Le revers est beige grisé à ocre avec de fines lignes marron discales et postdiscales très sinueuses avec l'aire postdiscale plus claire à ligne d'ocelles discrets sauf à l'aile postérieure un proche de l'apex et celui proche de l'angle anal qui sont noirs et pupillés.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harjesia griseola se nomme Obscure Satyr en anglais comme Harjesia obscura.
 </t>
         </is>
       </c>
@@ -574,12 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harjesia griseola est très rarement rencontré[3].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harjesia griseola est un papillon aux ailes postérieures légèrement dentelées au dessus gris ocré.
+Le revers est beige grisé à ocre avec de fines lignes marron discales et postdiscales très sinueuses avec l'aire postdiscale plus claire à ligne d'ocelles discrets sauf à l'aile postérieure un proche de l'apex et celui proche de l'angle anal qui sont noirs et pupillés.
 </t>
         </is>
       </c>
@@ -605,15 +625,84 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harjesia griseola est très rarement rencontré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Harjesia_griseola</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harjesia_griseola</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harjesia griseola est présent en Bolivie, au Brésil et en Guyane[1],[3].
-Biotope
-Protection
-Pas de statut de protection particulier
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harjesia griseola est présent en Bolivie, au Brésil et en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Harjesia_griseola</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harjesia_griseola</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Harjesia griseola, sur Wikimedia CommonsHarjesia griseola, sur Wikispecies
 </t>
